--- a/resources/Prototype of Database Structure.xlsx
+++ b/resources/Prototype of Database Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\countries living\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohini\Desktop\Project-2-ETL-Countries-Cost-Living\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1C9B9-19F9-4889-8076-104C03B7F35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6134780-7DBA-42F4-9785-FC7B3545843E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B2CF54A7-4C7A-4518-B1EB-391733AAE2A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B2CF54A7-4C7A-4518-B1EB-391733AAE2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EE0D93-D3EA-41ED-B653-0E4543D1F8AE}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,37 +447,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
